--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_209.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_209.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,448 +488,462 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
+          <t>isophonics_232</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5111111111111111</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['C', 'F', 'C', 'F']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(120.66, 122.74)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(74.7, 94.12)]</t>
+          <t>[('0:00:16.179070', '0:00:23.725555')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:02:34.020000', '0:02:40.380000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>isophonics_283</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_282</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1625</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(70.98, 87.2)]</t>
+          <t>[['Eb', 'F', 'Bb']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(21.78, 28.04)]</t>
+          <t>[('0:01:05.382154', '0:01:14.101247')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:44.917324', '0:00:48.272607')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_277</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07307692307692308</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(43.12, 59.64)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(9.74, 35.46)]</t>
+          <t>[('0:00:16.020000', '0:00:22.500000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:32.920657', '0:00:39.410634')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj', 'A#:min']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_114</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6363636363636364</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(41.32, 49.38)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(102.16, 113.9)]</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:06.726778', '0:00:13.147096')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_81</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_133</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3645833333333334</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['B', 'B', 'E/5', 'B', 'B']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(36.82, 38.82), (36.52, 38.28), (9.26, 13.9)]</t>
+          <t>[['D/2', 'D/3', 'G', 'D', 'D/2']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(12.74, 26.98), (53.46, 62.74), (0.38, 6.26)]</t>
+          <t>[('0:00:55.629773', '0:01:07.541609')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:56.753520', '0:01:14.388469')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
-        </is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_50</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2697674418604651</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(17.36, 20.12)]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(5.78, 12.6)]</t>
+          <t>[('0:00:41.780000', '0:00:56.280000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:09.560000', '0:00:32.440000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(32.2, 33.7)]</t>
+          <t>[['C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14)]</t>
+          <t>[('0:00:17.180000', '0:00:48.160000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:01:12.500000', '0:01:33.840000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1846153846153846</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(17.86, 28.3)]</t>
+          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(8.18, 14.18)]</t>
+          <t>[('0:00:23.140000', '0:00:32.760000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>[('0:00:53.460000', '0:01:03.980000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min', 'C:min', 'G:7', 'C:min', 'C:min', 'C:min/G', 'G:7', 'C:(3,5,b7,b9)/E', 'F:min', 'C:maj/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'D#:maj/A#', 'A#:7', 'D#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:7', 'D#:maj', 'C:min/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_11</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(0.36, 147.72)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(0.36, 127.8)]</t>
+          <t>[('0:01:09.860000', '0:01:13.740000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2461538461538462</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>[['C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(11.62, 15.6)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(34.56, 36.42)]</t>
+          <t>[('0:01:12.500000', '0:01:33.840000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:01:53.020000', '0:01:54.760000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -933,272 +952,236 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_127</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_136</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.811411149825784</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['D', 'G', 'D', 'G', 'D', 'G', 'A', 'D', 'D', 'G', 'D', 'G', 'D', 'G', 'A', 'D', 'D', 'G', 'D', 'G', 'D', 'G', 'A', 'D', 'D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(5.0, 114.06)]</t>
+          <t>[['A', 'D', 'A', 'D/5', 'A', 'D/5', 'E/4', 'A', 'A', 'D/5', 'A', 'D/5', 'A', 'D/4', 'E/4', 'A', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'E/4', 'A', 'A', 'D/5', 'A']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(5.44, 113.76)]</t>
+          <t>[('0:00:17.965212', '0:01:23.364215')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:02:44.130000', '0:03:13.674000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(3.78, 7.38)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(14.2, 18.8)]</t>
+          <t>[('0:00:14.520000', '0:00:59.640000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:17.380000', '0:01:01.660000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(13.72, 22.2)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(6.88, 12.96)]</t>
+          <t>[('0:00:00.360000', '0:02:02.640000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:01.440000', '0:02:06.440000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(67.76, 84.78)]</t>
+          <t>[['A:min', 'A:7', 'D:maj/A', 'D:min/A', 'A:maj', 'A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A', 'E:7/A', 'A:min', 'D:min/A', 'A:min', 'C:maj/G', 'D:min/F', 'C:maj/E', 'G:7', 'C:maj', 'A:min', 'A:7/G', 'D:maj/F#', 'G:(3,5,b7,b9)/F', 'C:maj/E', 'E:(3,5,b7,b9)/D', 'F:(3,5)', 'A:min/E', 'E:7', 'F:(3,5)', 'A:min/E', 'E:7', 'A:min', 'A:7', 'D:maj', 'D:min', 'A:maj', 'A:min/A', 'E:maj', 'A:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(23.26, 29.8)]</t>
+          <t>[('0:00:00.820000', '0:01:47.920000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:00.620000', '0:01:47.380000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(9.48, 25.94)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(3.82, 8.62)]</t>
+          <t>[('0:00:57.920000', '0:01:00.680000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(39.8, 48.28)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(102.16, 113.9)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:23.160000', '0:00:26.040000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
